--- a/data/financial_statements/socf/DOW.xlsx
+++ b/data/financial_statements/socf/DOW.xlsx
@@ -14,9 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -116,9 +176,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +228,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -481,87 +535,87 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="U1" s="2">
-        <v>42735</v>
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>760000000</v>
+        <v>735000000</v>
       </c>
       <c r="C2">
-        <v>1681000000</v>
+        <v>1652000000</v>
       </c>
       <c r="D2">
-        <v>1552000000</v>
+        <v>1561000000</v>
       </c>
       <c r="E2">
-        <v>1761000000</v>
+        <v>1727000000</v>
       </c>
       <c r="F2">
-        <v>1706000000</v>
+        <v>1675000000</v>
       </c>
       <c r="G2">
         <v>1932000000</v>
@@ -610,8 +664,8 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
         <v>668000000</v>
@@ -675,8 +729,8 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
         <v>-8000000</v>
@@ -731,8 +785,8 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1090000000</v>
@@ -787,8 +841,8 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B6">
         <v>654000000</v>
@@ -843,8 +897,8 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B7">
         <v>-929000000</v>
@@ -899,8 +953,8 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B8">
         <v>-929000000</v>
@@ -940,23 +994,23 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>-519000000</v>
+        <v>-295000000</v>
       </c>
       <c r="C9">
-        <v>147000000</v>
+        <v>52000000</v>
       </c>
       <c r="D9">
-        <v>-240000000</v>
+        <v>-493000000</v>
       </c>
       <c r="E9">
-        <v>-467000000</v>
+        <v>-257000000</v>
       </c>
       <c r="F9">
-        <v>356000000</v>
+        <v>256000000</v>
       </c>
       <c r="G9">
         <v>291000000</v>
@@ -996,8 +1050,8 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="Q10">
         <v>-822000000</v>
@@ -1010,8 +1064,8 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B11">
         <v>1940000000</v>
@@ -1075,8 +1129,8 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B12">
         <v>-497000000</v>
@@ -1140,8 +1194,8 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B13">
         <v>-54000000</v>
@@ -1184,8 +1238,8 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B14">
         <v>-25000000</v>
@@ -1240,23 +1294,23 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>-20000000</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>-46000000</v>
+        <v>-26000000</v>
       </c>
       <c r="D15">
-        <v>-51000000</v>
+        <v>-15000000</v>
       </c>
       <c r="E15">
-        <v>-39000000</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>-17000000</v>
+        <v>-10000000</v>
       </c>
       <c r="G15">
         <v>-21000000</v>
@@ -1305,8 +1359,8 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B16">
         <v>-576000000</v>
@@ -1370,23 +1424,23 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>-106000000</v>
+        <v>-105000000</v>
       </c>
       <c r="C17">
-        <v>-816000000</v>
+        <v>-668000000</v>
       </c>
       <c r="D17">
-        <v>97000000</v>
+        <v>-44000000</v>
       </c>
       <c r="E17">
-        <v>-254000000</v>
+        <v>-253000000</v>
       </c>
       <c r="F17">
-        <v>-1561000000</v>
+        <v>-1120000000</v>
       </c>
       <c r="G17">
         <v>-1141000000</v>
@@ -1435,8 +1489,8 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B18">
         <v>-798000000</v>
@@ -1488,23 +1542,23 @@
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>-493000000</v>
+        <v>-513000000</v>
       </c>
       <c r="C19">
-        <v>-505000000</v>
+        <v>-526000000</v>
       </c>
       <c r="D19">
-        <v>-513000000</v>
+        <v>-514000000</v>
       </c>
       <c r="E19">
-        <v>-512000000</v>
+        <v>-550000000</v>
       </c>
       <c r="F19">
-        <v>-518000000</v>
+        <v>-525000000</v>
       </c>
       <c r="G19">
         <v>-542000000</v>
@@ -1553,23 +1607,23 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>196000000</v>
+        <v>-1000000</v>
       </c>
       <c r="C20">
-        <v>-170000000</v>
+        <v>-147000000</v>
       </c>
       <c r="D20">
-        <v>601000000</v>
+        <v>106000000</v>
       </c>
       <c r="E20">
-        <v>-208000000</v>
+        <v>-2000000</v>
       </c>
       <c r="F20">
-        <v>340000000</v>
+        <v>-441000000</v>
       </c>
       <c r="G20">
         <v>-95000000</v>
@@ -1618,8 +1672,8 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B21">
         <v>-1417000000</v>
@@ -1683,8 +1737,8 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B22">
         <v>-99000000</v>
@@ -1748,16 +1802,16 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P23">
         <v>-97000000</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B24">
         <v>-152000000</v>
@@ -1821,8 +1875,8 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1886,8 +1940,8 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B26">
         <v>-152000000</v>
@@ -1951,8 +2005,8 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B27">
         <v>-513000000</v>
@@ -2016,23 +2070,23 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B28">
-        <v>0.3527</v>
+        <v>0.3529</v>
       </c>
       <c r="C28">
-        <v>0.2953</v>
+        <v>0.2952</v>
       </c>
       <c r="D28">
-        <v>0.2418</v>
+        <v>0.2417</v>
       </c>
       <c r="E28">
-        <v>0.2732</v>
+        <v>0.2753</v>
       </c>
       <c r="F28">
-        <v>0.2662</v>
+        <v>0.266</v>
       </c>
       <c r="G28">
         <v>0.2549</v>
@@ -2072,8 +2126,8 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B29">
         <v>520000000</v>
@@ -2137,8 +2191,8 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B30">
         <v>-25000000</v>
@@ -2202,8 +2256,8 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B31">
         <v>-798000000</v>
@@ -2264,8 +2318,8 @@
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B32">
         <v>-798000000</v>
